--- a/templates/documents/order_acceptance_template.xlsx
+++ b/templates/documents/order_acceptance_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9920"/>
+    <workbookView xWindow="2390" yWindow="140" windowWidth="14630" windowHeight="9440"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>注文請書</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>■ 受注者情報</t>
+  </si>
+  <si>
+    <t>氏　名:</t>
   </si>
   <si>
     <t>[clientName]</t>
@@ -113,23 +116,22 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <charset val="128"/>
-      <color theme="1"/>
-      <family val="3"/>
+      <color indexed="8"/>
+      <family val="2"/>
       <sz val="11"/>
-      <name val="MS UI Gothic"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <charset val="128"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <family val="3"/>
       <sz val="16"/>
       <name val="MS UI Gothic"/>
     </font>
     <font>
       <charset val="128"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <family val="3"/>
       <sz val="9"/>
       <name val="MS UI Gothic"/>
@@ -137,35 +139,40 @@
     <font>
       <b/>
       <charset val="128"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <family val="3"/>
       <sz val="12"/>
       <name val="MS UI Gothic"/>
     </font>
     <font>
       <charset val="128"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <family val="3"/>
       <sz val="7"/>
       <name val="MS UI Gothic"/>
     </font>
     <font>
       <charset val="128"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <family val="3"/>
       <sz val="8"/>
       <name val="MS UI Gothic"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -174,40 +181,149 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -230,18 +346,18 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office テーマ">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
@@ -262,119 +378,25 @@
         <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office テーマ">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="ヒラギノ角ゴ ProN W6"/>
+        <a:ea typeface="ヒラギノ角ゴ ProN W6"/>
+        <a:cs typeface="ヒラギノ角ゴ ProN W6"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="ヒラギノ角ゴ ProN W3"/>
+        <a:ea typeface="ヒラギノ角ゴ ProN W3"/>
+        <a:cs typeface="ヒラギノ角ゴ ProN W3"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office テーマ">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -383,76 +405,66 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -463,249 +475,1076 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Aptos Narrow"/>
+            <a:ea typeface="Aptos Narrow"/>
+            <a:cs typeface="Aptos Narrow"/>
+            <a:sym typeface="Aptos Narrow"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
       <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Aptos Narrow"/>
+            <a:ea typeface="Aptos Narrow"/>
+            <a:cs typeface="Aptos Narrow"/>
+            <a:sym typeface="Aptos Narrow"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0" showGridLines="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.55" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="8.81640625" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.90625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" ht="32" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="25.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="25.5" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="25.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" ht="25.5" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" ht="25.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" ht="25.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" ht="25.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4"/>
+    </row>
+    <row r="10" ht="25.5" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" ht="25.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" ht="25.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" ht="25.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" ht="20" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="4"/>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" ht="44" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" ht="53" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" ht="13" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" ht="13" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -716,10 +1555,13 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="0" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>